--- a/lp-ontology-recommender/src/main/resources/testdata/kpi/IndividualsPerformanceKPIs_20160630.xlsx
+++ b/lp-ontology-recommender/src/main/resources/testdata/kpi/IndividualsPerformanceKPIs_20160630.xlsx
@@ -28,9 +28,6 @@
     <t>BusinessActorId</t>
   </si>
   <si>
-    <t>barnaby.barnes@learnpad.com</t>
-  </si>
-  <si>
     <t>% cases  performed by a learner without help from experts</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
   </si>
   <si>
     <t>EvaluationDate</t>
-  </si>
-  <si>
-    <t>sally.shugar@learnpad.com</t>
   </si>
   <si>
     <t>Sally Shugar</t>
@@ -124,6 +118,12 @@
     BIND (xsd:decimal(?CasesHandledInTime) AS ?value4)
     BIND (URI(CONCAT("http://learnpad.eu/exec#", STRAFTER(STR(?kpi4), "#"), "_",STRAFTER(STR(?performer), "#"),"_",REPLACE(?EvaluationDate," ","_"),"_value")) AS ?kpi4_value) .
   }</t>
+  </si>
+  <si>
+    <t>barnaby.barnes@learnpad.eu</t>
+  </si>
+  <si>
+    <t>sally.shugar@learnpad.eu</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,13 +551,13 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>42551</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -565,10 +565,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -618,13 +618,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +640,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,13 +655,13 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>42551</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -669,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -680,13 +680,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>95</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -694,13 +694,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>100</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -708,13 +708,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -722,13 +722,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -759,11 +759,11 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -780,11 +780,11 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6"/>
       <c r="E6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -792,11 +792,11 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6"/>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -804,11 +804,11 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6"/>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -816,11 +816,11 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +835,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
     </row>
     <row r="2" spans="1:16" ht="363.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -890,30 +890,30 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" ref="B5:G6" ca="1" si="0">IF($A5="","",VLOOKUP(B$4,INDIRECT(CONCATENATE("'",$A5,"'!B:C")),2,))</f>
@@ -921,7 +921,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>barnaby.barnes@learnpad.com</v>
+        <v>barnaby.barnes@learnpad.eu</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sally.shugar@learnpad.com</v>
+        <v>sally.shugar@learnpad.eu</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>

--- a/lp-ontology-recommender/src/main/resources/testdata/kpi/IndividualsPerformanceKPIs_20160630.xlsx
+++ b/lp-ontology-recommender/src/main/resources/testdata/kpi/IndividualsPerformanceKPIs_20160630.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15000" windowHeight="6990" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15000" windowHeight="6990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Barnaby Barnes" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,10 @@
   }</t>
   </si>
   <si>
-    <t>barnaby.barnes@learnpad.eu</t>
-  </si>
-  <si>
-    <t>sally.shugar@learnpad.eu</t>
+    <t>b.barnes@learnpad.eu</t>
+  </si>
+  <si>
+    <t>s.shugar@learnpad.eu</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +921,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>barnaby.barnes@learnpad.eu</v>
+        <v>b.barnes@learnpad.eu</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sally.shugar@learnpad.eu</v>
+        <v>s.shugar@learnpad.eu</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
